--- a/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/segment_003/frequency_features.xlsx
+++ b/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/segment_003/frequency_features.xlsx
@@ -532,40 +532,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>0.05847953216374269</v>
       </c>
       <c r="B2" t="n">
-        <v>102.1232399526383</v>
+        <v>113.9589998125729</v>
       </c>
       <c r="C2" t="n">
-        <v>172.7400783490419</v>
+        <v>412.20513327783</v>
       </c>
       <c r="D2" t="n">
-        <v>1.916831937265619e-08</v>
+        <v>1.585404591289523e-07</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0001149428631927009</v>
+        <v>0.0001345701346480648</v>
       </c>
       <c r="F2" t="n">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5461135826344296</v>
+        <v>0.1046211408758264</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1266667012914969</v>
+        <v>1.113354430362445</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.2744979377428945</v>
+        <v>2.38929558470068</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.8672579968603888</v>
+        <v>-0.8982291197013968</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -581,16 +581,16 @@
         <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q2" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R2" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S2" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3">
@@ -598,37 +598,37 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>143.6191224820678</v>
+        <v>62.03294245044879</v>
       </c>
       <c r="C3" t="n">
-        <v>388.786013410717</v>
+        <v>284.4025775998848</v>
       </c>
       <c r="D3" t="n">
-        <v>3.204198703682165e-06</v>
+        <v>1.817400534160448e-07</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0006243967668866904</v>
+        <v>0.0002508115294057307</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="G3" t="n">
         <v>1.1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7680166977650683</v>
+        <v>-0.3627657453242619</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5445508212907221</v>
+        <v>0.5896326741452191</v>
       </c>
       <c r="K3" t="n">
-        <v>1.658256804111375</v>
+        <v>0.7576234860647353</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.4466376088031635</v>
+        <v>-1.33154188747026</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -644,54 +644,54 @@
         <v>3</v>
       </c>
       <c r="P3" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q3" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R3" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S3" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.106951871657754</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>34.73931708849429</v>
+        <v>65.13416479346277</v>
       </c>
       <c r="C4" t="n">
-        <v>165.2201147421564</v>
+        <v>221.1238806344612</v>
       </c>
       <c r="D4" t="n">
-        <v>1.952253820796982e-07</v>
+        <v>1.24726036164404e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0001858634394394328</v>
+        <v>0.0001569983723265833</v>
       </c>
       <c r="F4" t="n">
-        <v>8.800000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="G4" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1072969574405699</v>
+        <v>-0.3809015484997824</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3456942577006907</v>
+        <v>0.3788344192070867</v>
       </c>
       <c r="K4" t="n">
-        <v>1.025810363848754</v>
+        <v>0.4375812589609941</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.4720454865860335</v>
+        <v>-1.055692744920427</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -707,54 +707,54 @@
         <v>3</v>
       </c>
       <c r="P4" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q4" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R4" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S4" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.053475935828877</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>48.52967381224727</v>
+        <v>180.5732903107548</v>
       </c>
       <c r="C5" t="n">
-        <v>295.4959064667553</v>
+        <v>418.7832087187591</v>
       </c>
       <c r="D5" t="n">
-        <v>2.479676220364421e-05</v>
+        <v>3.380437533626623e-06</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0005135754341885229</v>
+        <v>0.001549329258484005</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1040607307935668</v>
+        <v>-1.055984153864063</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5909319206041511</v>
+        <v>0.5542359671598451</v>
       </c>
       <c r="K5" t="n">
-        <v>1.262866608743197</v>
+        <v>0.2321501815854168</v>
       </c>
       <c r="L5" t="n">
-        <v>-1.102470919275475</v>
+        <v>-1.876404153478207</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -770,16 +770,16 @@
         <v>3</v>
       </c>
       <c r="P5" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q5" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R5" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S5" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6">
@@ -787,37 +787,37 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>151.3933472850591</v>
+        <v>159.4698178802272</v>
       </c>
       <c r="C6" t="n">
-        <v>257.1699102798425</v>
+        <v>270.1949991324811</v>
       </c>
       <c r="D6" t="n">
-        <v>1.519906972820182e-07</v>
+        <v>3.829074677263075e-07</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0001379883134411187</v>
+        <v>0.0001327023709173945</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G6" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.8095900924334714</v>
+        <v>-0.9325720343872935</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2369862550844536</v>
+        <v>0.2421147072932017</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.2540671790178382</v>
+        <v>-0.3199657898523829</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.201330856629215</v>
+        <v>-1.359548645041161</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -833,54 +833,54 @@
         <v>3</v>
       </c>
       <c r="P6" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q6" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R6" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S6" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.053475935828877</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>26.71388813932077</v>
+        <v>93.21954601890704</v>
       </c>
       <c r="C7" t="n">
-        <v>194.8346156914767</v>
+        <v>208.5721964721932</v>
       </c>
       <c r="D7" t="n">
-        <v>4.806957558053494e-07</v>
+        <v>6.73328180496082e-07</v>
       </c>
       <c r="E7" t="n">
-        <v>6.95651473568813e-05</v>
+        <v>3.813110437276955e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1143022536580226</v>
+        <v>-0.5451435439702166</v>
       </c>
       <c r="J7" t="n">
-        <v>0.303344163140036</v>
+        <v>0.22061957457437</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6979048244286258</v>
+        <v>-0.02824522123715179</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.6568162503833117</v>
+        <v>-0.9552335630255452</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -896,16 +896,16 @@
         <v>3</v>
       </c>
       <c r="P7" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q7" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R7" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S7" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8">
@@ -913,37 +913,37 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>80.9670366158837</v>
+        <v>82.78749029649246</v>
       </c>
       <c r="C8" t="n">
-        <v>141.7640867787575</v>
+        <v>153.8959083394768</v>
       </c>
       <c r="D8" t="n">
-        <v>8.193795382432118e-09</v>
+        <v>2.889098502264086e-07</v>
       </c>
       <c r="E8" t="n">
-        <v>4.589363708759111e-05</v>
+        <v>6.629493590551972e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4329788054325331</v>
+        <v>-0.4841373701549267</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1363520009973483</v>
+        <v>0.1817880548658856</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.1385542723974766</v>
+        <v>-0.03662943570069941</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.7428397716141296</v>
+        <v>-0.836348489825277</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -959,16 +959,16 @@
         <v>3</v>
       </c>
       <c r="P8" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q8" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R8" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S8" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9">
@@ -976,37 +976,37 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>174.2464981128142</v>
+        <v>198.4196062821053</v>
       </c>
       <c r="C9" t="n">
-        <v>321.6176384572355</v>
+        <v>354.8862102215556</v>
       </c>
       <c r="D9" t="n">
-        <v>7.008914057657709e-08</v>
+        <v>1.621121194485837e-07</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00012565137399088</v>
+        <v>0.0001050806519959672</v>
       </c>
       <c r="F9" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="G9" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.9317994551487391</v>
+        <v>-1.160348574749154</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2574893471999857</v>
+        <v>0.3671229956995345</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.2605231915447755</v>
+        <v>-0.5658206031904335</v>
       </c>
       <c r="L9" t="n">
-        <v>-1.423690879829506</v>
+        <v>-1.879558588410674</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1022,54 +1022,54 @@
         <v>3</v>
       </c>
       <c r="P9" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q9" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R9" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S9" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.053475935828877</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>91.00453628327635</v>
+        <v>84.06524845801565</v>
       </c>
       <c r="C10" t="n">
-        <v>380.1430356485231</v>
+        <v>335.5395272426036</v>
       </c>
       <c r="D10" t="n">
-        <v>1.297690380293161e-07</v>
+        <v>8.757366618505394e-07</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0001518661041215146</v>
+        <v>0.0001120289069580368</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4372461841965412</v>
+        <v>-0.4916096401053546</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8509765901267281</v>
+        <v>0.538094728408946</v>
       </c>
       <c r="K10" t="n">
-        <v>2.328531620873597</v>
+        <v>0.9495283338950835</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.753506157864712</v>
+        <v>-1.132938996373461</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1085,54 +1085,54 @@
         <v>3</v>
       </c>
       <c r="P10" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q10" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R10" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S10" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.053475935828877</v>
+        <v>0.05847953216374269</v>
       </c>
       <c r="B11" t="n">
-        <v>101.6082896856225</v>
+        <v>43.54815688226153</v>
       </c>
       <c r="C11" t="n">
-        <v>475.2250938330376</v>
+        <v>313.0224113443383</v>
       </c>
       <c r="D11" t="n">
-        <v>3.443624050891851e-07</v>
+        <v>2.3421336231279e-06</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0001939549804547435</v>
+        <v>0.0001552291397848266</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3201251112987992</v>
+        <v>0.2138131708378462</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9906642757459398</v>
+        <v>0.6965781397761885</v>
       </c>
       <c r="K11" t="n">
-        <v>2.792328942281063</v>
+        <v>1.383551359029073</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.447479714941137</v>
+        <v>-1.289489595469377</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1148,16 +1148,16 @@
         <v>3</v>
       </c>
       <c r="P11" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q11" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R11" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S11" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12">
@@ -1165,37 +1165,37 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>48.26603009445186</v>
+        <v>203.9473201416309</v>
       </c>
       <c r="C12" t="n">
-        <v>349.0285185584392</v>
+        <v>437.2535556661742</v>
       </c>
       <c r="D12" t="n">
-        <v>2.224836042933404e-06</v>
+        <v>1.411067949459226e-06</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0008991944399762553</v>
+        <v>0.001194709931086648</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2581071128045554</v>
+        <v>-1.192674386793163</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4848921593509924</v>
+        <v>0.5681060612874524</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9255330720696286</v>
+        <v>-0.06083402446823527</v>
       </c>
       <c r="L12" t="n">
-        <v>-1.445837169108327</v>
+        <v>-2.526661171859902</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1211,16 +1211,16 @@
         <v>3</v>
       </c>
       <c r="P12" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q12" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R12" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S12" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13">
@@ -1228,37 +1228,37 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>109.5955582791578</v>
+        <v>139.3667148911083</v>
       </c>
       <c r="C13" t="n">
-        <v>157.2865091259262</v>
+        <v>189.4980540737963</v>
       </c>
       <c r="D13" t="n">
-        <v>6.450955893595828e-08</v>
+        <v>2.592932314714472e-08</v>
       </c>
       <c r="E13" t="n">
-        <v>4.211302107348914e-05</v>
+        <v>2.204882598805248e-05</v>
       </c>
       <c r="F13" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="G13" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.586072504166619</v>
+        <v>-0.8150100286029727</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1055081175561679</v>
+        <v>0.1036118214534361</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.3915123189962693</v>
+        <v>-0.5902409289156062</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.8319197151731837</v>
+        <v>-1.006399609890604</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1274,54 +1274,54 @@
         <v>3</v>
       </c>
       <c r="P13" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q13" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R13" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S13" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.106951871657754</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>53.90033375810569</v>
+        <v>139.2236431580045</v>
       </c>
       <c r="C14" t="n">
-        <v>314.5103772285285</v>
+        <v>241.7307323080616</v>
       </c>
       <c r="D14" t="n">
-        <v>8.998119488026621e-08</v>
+        <v>2.144976641238494e-06</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0001373929899669871</v>
+        <v>0.0002081954113376873</v>
       </c>
       <c r="F14" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2482212242440348</v>
+        <v>-0.814173351801196</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6380871432490144</v>
+        <v>0.2552547821106625</v>
       </c>
       <c r="K14" t="n">
-        <v>1.670220676807819</v>
+        <v>-0.3347397821107378</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.9403883258048077</v>
+        <v>-1.521707352256153</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1337,54 +1337,54 @@
         <v>3</v>
       </c>
       <c r="P14" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q14" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R14" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S14" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>0.05847953216374269</v>
       </c>
       <c r="B15" t="n">
-        <v>78.97450615060204</v>
+        <v>94.35217255140314</v>
       </c>
       <c r="C15" t="n">
-        <v>268.3805194749746</v>
+        <v>399.2147675613803</v>
       </c>
       <c r="D15" t="n">
-        <v>3.234870925680898e-07</v>
+        <v>2.041448954151306e-06</v>
       </c>
       <c r="E15" t="n">
-        <v>6.297606929890438e-05</v>
+        <v>0.0002614760951635108</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.4223235623026846</v>
+        <v>0.06067670292678304</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4611010732909103</v>
+        <v>0.9951313272827659</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6875338233924269</v>
+        <v>2.497700798172213</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.987505216762751</v>
+        <v>-1.167411957591153</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1400,54 +1400,54 @@
         <v>3</v>
       </c>
       <c r="P15" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q15" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R15" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S15" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.053475935828877</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>142.7100878808457</v>
+        <v>52.23240816955268</v>
       </c>
       <c r="C16" t="n">
-        <v>478.066966465596</v>
+        <v>269.3048766063519</v>
       </c>
       <c r="D16" t="n">
-        <v>1.060794140951915e-07</v>
+        <v>7.380462907257095e-08</v>
       </c>
       <c r="E16" t="n">
-        <v>3.467823290331183e-05</v>
+        <v>6.508016335063546e-05</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0.572007118759849</v>
+        <v>0.3054526793541092</v>
       </c>
       <c r="J16" t="n">
-        <v>1.15321377078678</v>
+        <v>0.6144854955671912</v>
       </c>
       <c r="K16" t="n">
-        <v>2.55610960425245</v>
+        <v>1.608452486242751</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.8732683298373806</v>
+        <v>-0.5680149041325319</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1463,54 +1463,54 @@
         <v>3</v>
       </c>
       <c r="P16" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q16" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R16" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S16" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.053475935828877</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>87.89211733056126</v>
+        <v>67.45927328183942</v>
       </c>
       <c r="C17" t="n">
-        <v>303.814020658442</v>
+        <v>206.5721122092187</v>
       </c>
       <c r="D17" t="n">
-        <v>1.456484062899033e-07</v>
+        <v>5.096339086680547e-07</v>
       </c>
       <c r="E17" t="n">
-        <v>6.175334873330976e-05</v>
+        <v>4.081408126431033e-05</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.02713916426299569</v>
+        <v>-0.3944986741628036</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8343235602834416</v>
+        <v>0.3281223150227687</v>
       </c>
       <c r="K17" t="n">
-        <v>1.827890421775443</v>
+        <v>0.4328449864372008</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.8519205704998213</v>
+        <v>-0.8753661248606207</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1526,54 +1526,54 @@
         <v>3</v>
       </c>
       <c r="P17" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q17" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R17" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S17" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.053475935828877</v>
+        <v>0.05847953216374269</v>
       </c>
       <c r="B18" t="n">
-        <v>59.18790707959339</v>
+        <v>118.5038034692244</v>
       </c>
       <c r="C18" t="n">
-        <v>317.7855074450599</v>
+        <v>461.5634665267958</v>
       </c>
       <c r="D18" t="n">
-        <v>4.838482122947513e-07</v>
+        <v>3.084070439489191e-07</v>
       </c>
       <c r="E18" t="n">
-        <v>0.000133701875591115</v>
+        <v>0.000101675982255736</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.05919313134237805</v>
+        <v>0.3707524867799465</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5778016039777097</v>
+        <v>1.171985865729545</v>
       </c>
       <c r="K18" t="n">
-        <v>1.654648987516232</v>
+        <v>2.473918131702882</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.870367800270377</v>
+        <v>-1.468781364249983</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1589,54 +1589,54 @@
         <v>3</v>
       </c>
       <c r="P18" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q18" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R18" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S18" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.053475935828877</v>
+        <v>0.05847953216374269</v>
       </c>
       <c r="B19" t="n">
-        <v>35.60478656487847</v>
+        <v>76.41874500345524</v>
       </c>
       <c r="C19" t="n">
-        <v>209.0226856972368</v>
+        <v>399.9362236953957</v>
       </c>
       <c r="D19" t="n">
-        <v>6.124093470826859e-08</v>
+        <v>3.709882540783945e-07</v>
       </c>
       <c r="E19" t="n">
-        <v>5.575875850313572e-05</v>
+        <v>8.527084894721445e-05</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1860045515096235</v>
+        <v>0.1139012668400075</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3486838005822799</v>
+        <v>0.9390718502041079</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8817913615562425</v>
+        <v>2.558788562921715</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.5066609670224307</v>
+        <v>-0.8638053989505207</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1652,54 +1652,54 @@
         <v>3</v>
       </c>
       <c r="P19" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q19" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R19" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S19" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>0.05847953216374269</v>
       </c>
       <c r="B20" t="n">
-        <v>40.08532812097755</v>
+        <v>100.9347024422745</v>
       </c>
       <c r="C20" t="n">
-        <v>143.146143692555</v>
+        <v>372.6656193304984</v>
       </c>
       <c r="D20" t="n">
-        <v>3.183369474204684e-07</v>
+        <v>2.747328064205746e-07</v>
       </c>
       <c r="E20" t="n">
-        <v>5.719437535149989e-05</v>
+        <v>4.341932417400287e-05</v>
       </c>
       <c r="F20" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.2143600434276874</v>
+        <v>0.5517596820624534</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1708959714632741</v>
+        <v>0.9086532384390907</v>
       </c>
       <c r="K20" t="n">
-        <v>0.191506457056229</v>
+        <v>2.457304885550304</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.629367259250278</v>
+        <v>-0.5498798271973953</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -1715,54 +1715,54 @@
         <v>3</v>
       </c>
       <c r="P20" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q20" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R20" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S20" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>0.05847953216374269</v>
       </c>
       <c r="B21" t="n">
-        <v>270.2593480818525</v>
+        <v>54.98613991957795</v>
       </c>
       <c r="C21" t="n">
-        <v>771.7333759198301</v>
+        <v>173.1105841952078</v>
       </c>
       <c r="D21" t="n">
-        <v>2.971115363739804e-07</v>
+        <v>1.104730262226818e-06</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0001161406888670033</v>
+        <v>3.629850034554879e-05</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.445237155517928</v>
+        <v>-0.02766148662849692</v>
       </c>
       <c r="J21" t="n">
-        <v>0.882728949568667</v>
+        <v>0.4966961225701984</v>
       </c>
       <c r="K21" t="n">
-        <v>3.342561006688892</v>
+        <v>0.7678332494613574</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0549854818743576</v>
+        <v>-0.7857138779157357</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -1778,16 +1778,16 @@
         <v>3</v>
       </c>
       <c r="P21" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q21" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R21" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S21" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22">
@@ -1795,37 +1795,37 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>224.1505965523114</v>
+        <v>218.8600355963667</v>
       </c>
       <c r="C22" t="n">
-        <v>466.5488460142037</v>
+        <v>654.6310779800472</v>
       </c>
       <c r="D22" t="n">
-        <v>8.334251781844311e-08</v>
+        <v>1.878504337823328e-08</v>
       </c>
       <c r="E22" t="n">
-        <v>4.721304597543187e-05</v>
+        <v>5.018284671868196e-05</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>1.19866629172359</v>
+        <v>1.279883249101559</v>
       </c>
       <c r="J22" t="n">
-        <v>0.606348756509418</v>
+        <v>0.9321874896816618</v>
       </c>
       <c r="K22" t="n">
-        <v>2.632287827458029</v>
+        <v>3.130957801231021</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4619086103160087</v>
+        <v>-0.03440105749270216</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -1841,54 +1841,54 @@
         <v>3</v>
       </c>
       <c r="P22" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q22" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R22" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S22" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.053475935828877</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>93.95175676964125</v>
+        <v>76.01385943535618</v>
       </c>
       <c r="C23" t="n">
-        <v>349.4693291284906</v>
+        <v>285.0418041279242</v>
       </c>
       <c r="D23" t="n">
-        <v>1.837403539258732e-06</v>
+        <v>3.329845199301275e-07</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0008320781322694714</v>
+        <v>0.0002006554347533101</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="G23" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2335828307977784</v>
+        <v>-0.4445254937740128</v>
       </c>
       <c r="J23" t="n">
-        <v>0.7839173918112136</v>
+        <v>0.4688167171468429</v>
       </c>
       <c r="K23" t="n">
-        <v>1.780864841890718</v>
+        <v>1.013257900336994</v>
       </c>
       <c r="L23" t="n">
-        <v>-1.224037752102989</v>
+        <v>-1.134495026581408</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -1904,54 +1904,54 @@
         <v>3</v>
       </c>
       <c r="P23" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q23" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R23" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S23" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>0.05847953216374269</v>
       </c>
       <c r="B24" t="n">
-        <v>239.6336315136273</v>
+        <v>102.1046081003169</v>
       </c>
       <c r="C24" t="n">
-        <v>638.673557618285</v>
+        <v>325.5371011818546</v>
       </c>
       <c r="D24" t="n">
-        <v>2.450654079106643e-07</v>
+        <v>7.622608107907738e-08</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0001588782001556751</v>
+        <v>0.0001927701030648838</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.281463270126349</v>
+        <v>-0.07431222314188718</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7325116903984892</v>
+        <v>1.02992517370575</v>
       </c>
       <c r="K24" t="n">
-        <v>2.45936211979375</v>
+        <v>2.41552432245237</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.2190885817420997</v>
+        <v>-1.24802334767189</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -1967,16 +1967,16 @@
         <v>3</v>
       </c>
       <c r="P24" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q24" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R24" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S24" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25">
@@ -1984,37 +1984,37 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>182.2010292420622</v>
+        <v>279.8891172251451</v>
       </c>
       <c r="C25" t="n">
-        <v>253.3594470640633</v>
+        <v>497.8375012840022</v>
       </c>
       <c r="D25" t="n">
-        <v>7.369102843251993e-08</v>
+        <v>1.633713645749226e-06</v>
       </c>
       <c r="E25" t="n">
-        <v>6.211837410947094e-05</v>
+        <v>0.0003226072971329967</v>
       </c>
       <c r="F25" t="n">
-        <v>2.3</v>
+        <v>15.8</v>
       </c>
       <c r="G25" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.9743370547703859</v>
+        <v>1.636778463304942</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1173098945457561</v>
+        <v>0.607056036989836</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.7269685173717831</v>
+        <v>2.608700071139703</v>
       </c>
       <c r="L25" t="n">
-        <v>-1.254760102670208</v>
+        <v>0.0792976415772777</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2030,16 +2030,16 @@
         <v>3</v>
       </c>
       <c r="P25" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q25" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R25" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S25" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26">
@@ -2047,37 +2047,37 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>47.53035229343432</v>
+        <v>105.0279388403615</v>
       </c>
       <c r="C26" t="n">
-        <v>139.0974277833936</v>
+        <v>203.8527273044941</v>
       </c>
       <c r="D26" t="n">
-        <v>4.532515289635413e-07</v>
+        <v>5.217460282724248e-07</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0003776325312792656</v>
+        <v>0.0001246804326756199</v>
       </c>
       <c r="F26" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.2541730069167611</v>
+        <v>-0.6141984727506519</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1631930301411084</v>
+        <v>0.2357196685740101</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1143465780423855</v>
+        <v>-0.1338584231035175</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.6578904217066157</v>
+        <v>-1.029757368894567</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2093,16 +2093,16 @@
         <v>3</v>
       </c>
       <c r="P26" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q26" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R26" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S26" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27">
@@ -2110,37 +2110,37 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>91.40639597799115</v>
+        <v>203.7180912719395</v>
       </c>
       <c r="C27" t="n">
-        <v>362.292846206793</v>
+        <v>657.6066366114819</v>
       </c>
       <c r="D27" t="n">
-        <v>3.745351825581789e-06</v>
+        <v>2.272476205790468e-07</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0006542105679500641</v>
+        <v>0.0001258931040286443</v>
       </c>
       <c r="F27" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4888042565667975</v>
+        <v>1.191333867087365</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5322277478723793</v>
+        <v>1.207482996140468</v>
       </c>
       <c r="K27" t="n">
-        <v>1.713474318890641</v>
+        <v>3.901403398342796</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.6786865358782549</v>
+        <v>-0.2461904782983603</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2156,54 +2156,54 @@
         <v>3</v>
       </c>
       <c r="P27" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q27" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R27" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S27" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>0.05847953216374269</v>
       </c>
       <c r="B28" t="n">
-        <v>99.5166549082345</v>
+        <v>112.4337523241158</v>
       </c>
       <c r="C28" t="n">
-        <v>228.9616897910007</v>
+        <v>513.0203278387888</v>
       </c>
       <c r="D28" t="n">
-        <v>2.539299730679721e-07</v>
+        <v>7.629094338174808e-07</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0002023386538562225</v>
+        <v>0.0002459421854934328</v>
       </c>
       <c r="F28" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.5321746251777246</v>
+        <v>0.5392895435179191</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1885743393086439</v>
+        <v>1.148618692011865</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.1615786016767136</v>
+        <v>3.198516386078049</v>
       </c>
       <c r="L28" t="n">
-        <v>-1.001522123107046</v>
+        <v>-1.072922845241754</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2219,54 +2219,54 @@
         <v>3</v>
       </c>
       <c r="P28" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q28" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R28" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S28" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>0.05847953216374269</v>
       </c>
       <c r="B29" t="n">
-        <v>49.04887314314848</v>
+        <v>157.3782745877251</v>
       </c>
       <c r="C29" t="n">
-        <v>166.0755414302712</v>
+        <v>681.098804239941</v>
       </c>
       <c r="D29" t="n">
-        <v>2.431739383816586e-08</v>
+        <v>3.300094266067985e-07</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0003106589679475055</v>
+        <v>0.0001934098328172571</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.2622934392681736</v>
+        <v>0.8287976261635074</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2527757201418938</v>
+        <v>1.516294096483425</v>
       </c>
       <c r="K29" t="n">
-        <v>0.225183235738591</v>
+        <v>5.086433265829428</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.7536665993416477</v>
+        <v>-0.7596968969298391</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2282,16 +2282,16 @@
         <v>3</v>
       </c>
       <c r="P29" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q29" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R29" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S29" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30">
@@ -2299,37 +2299,37 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>37.77545792358476</v>
+        <v>143.8397409485876</v>
       </c>
       <c r="C30" t="n">
-        <v>154.7101362445893</v>
+        <v>294.7097777608591</v>
       </c>
       <c r="D30" t="n">
-        <v>1.866640207859687e-06</v>
+        <v>1.752560990852777e-06</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0005751872583133564</v>
+        <v>0.0003211771428892647</v>
       </c>
       <c r="F30" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2020077963828062</v>
+        <v>-0.8411680757227343</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2893255673408281</v>
+        <v>0.4409878494106566</v>
       </c>
       <c r="K30" t="n">
-        <v>0.8630983530539884</v>
+        <v>-0.1124824240116653</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.5504655968159096</v>
+        <v>-1.834811249414471</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -2345,54 +2345,54 @@
         <v>3</v>
       </c>
       <c r="P30" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q30" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R30" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S30" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.053475935828877</v>
+        <v>0.05847953216374269</v>
       </c>
       <c r="B31" t="n">
-        <v>32.62629214000814</v>
+        <v>80.21395667407403</v>
       </c>
       <c r="C31" t="n">
-        <v>184.2512474550842</v>
+        <v>238.9237340226814</v>
       </c>
       <c r="D31" t="n">
-        <v>3.531953482106195e-07</v>
+        <v>9.531572823702922e-08</v>
       </c>
       <c r="E31" t="n">
-        <v>0.000150810161548385</v>
+        <v>0.0001156722529354933</v>
       </c>
       <c r="F31" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0286052106768681</v>
+        <v>-0.1231592766120536</v>
       </c>
       <c r="J31" t="n">
-        <v>0.3931774686467243</v>
+        <v>0.7554849998369505</v>
       </c>
       <c r="K31" t="n">
-        <v>0.9675521203397573</v>
+        <v>1.378716740415098</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.6936126092064611</v>
+        <v>-1.051574823076134</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -2408,16 +2408,16 @@
         <v>3</v>
       </c>
       <c r="P31" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q31" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R31" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S31" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32">
@@ -2425,37 +2425,37 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>63.09284133923889</v>
+        <v>78.30592842742428</v>
       </c>
       <c r="C32" t="n">
-        <v>232.4606539786923</v>
+        <v>170.4201571151479</v>
       </c>
       <c r="D32" t="n">
-        <v>2.462112834747919e-08</v>
+        <v>1.872141581522502e-06</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0002471640179321807</v>
+        <v>0.0005018209496839669</v>
       </c>
       <c r="F32" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.3373948734718658</v>
+        <v>-0.4579294060083291</v>
       </c>
       <c r="J32" t="n">
-        <v>0.2817076762533243</v>
+        <v>0.1828887512773575</v>
       </c>
       <c r="K32" t="n">
-        <v>0.2810830188899097</v>
+        <v>-0.1176519436294929</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.9104936212193598</v>
+        <v>-0.9993487391549803</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -2471,16 +2471,16 @@
         <v>3</v>
       </c>
       <c r="P32" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q32" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R32" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S32" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33">
@@ -2488,37 +2488,37 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>86.83069477620296</v>
+        <v>42.95171977344576</v>
       </c>
       <c r="C33" t="n">
-        <v>462.7611239069594</v>
+        <v>346.2029625186843</v>
       </c>
       <c r="D33" t="n">
-        <v>1.680472664409599e-06</v>
+        <v>3.204656755594782e-06</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0005052314526187737</v>
+        <v>0.0004318266204822842</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0.4643352661829035</v>
+        <v>-0.2511796477979284</v>
       </c>
       <c r="J33" t="n">
-        <v>0.5916807224638927</v>
+        <v>0.4848818871842399</v>
       </c>
       <c r="K33" t="n">
-        <v>2.323395316218631</v>
+        <v>1.176839468889356</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.6654877320942855</v>
+        <v>-1.100459865632528</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -2534,54 +2534,54 @@
         <v>3</v>
       </c>
       <c r="P33" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q33" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R33" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S33" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>0.05847953216374269</v>
       </c>
       <c r="B34" t="n">
-        <v>135.5156187974619</v>
+        <v>60.15734825150558</v>
       </c>
       <c r="C34" t="n">
-        <v>484.5845044721477</v>
+        <v>337.1388184078203</v>
       </c>
       <c r="D34" t="n">
-        <v>9.415594793779591e-08</v>
+        <v>5.089121011225074e-07</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0002789502777070454</v>
+        <v>0.0001256821277796564</v>
       </c>
       <c r="F34" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.7246824534623632</v>
+        <v>-0.02261683332917539</v>
       </c>
       <c r="J34" t="n">
-        <v>0.5786592745025156</v>
+        <v>0.6450268787737591</v>
       </c>
       <c r="K34" t="n">
-        <v>1.925658029246569</v>
+        <v>1.400460577936811</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.3417043654489275</v>
+        <v>-0.9782999411682901</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -2597,54 +2597,54 @@
         <v>3</v>
       </c>
       <c r="P34" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q34" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R34" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S34" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.053475935828877</v>
+        <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>67.84114743584919</v>
+        <v>96.12732338918208</v>
       </c>
       <c r="C35" t="n">
-        <v>431.0109316974776</v>
+        <v>368.6614685859716</v>
       </c>
       <c r="D35" t="n">
-        <v>1.235434047957162e-06</v>
+        <v>2.599802221810919e-07</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0001857392511492182</v>
+        <v>0.0001941714866550984</v>
       </c>
       <c r="F35" t="n">
-        <v>15.4</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.2648232364326762</v>
+        <v>-0.5621480899952168</v>
       </c>
       <c r="J35" t="n">
-        <v>0.6959684291194522</v>
+        <v>0.5186043586128071</v>
       </c>
       <c r="K35" t="n">
-        <v>1.834418559626015</v>
+        <v>0.8293040628064191</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.8033011328534261</v>
+        <v>-1.21752257376599</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -2660,16 +2660,16 @@
         <v>3</v>
       </c>
       <c r="P35" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q35" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R35" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S35" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36">
@@ -2677,37 +2677,37 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>36.80028295789445</v>
+        <v>113.0754876509661</v>
       </c>
       <c r="C36" t="n">
-        <v>211.7559798715851</v>
+        <v>250.1043086609737</v>
       </c>
       <c r="D36" t="n">
-        <v>3.087665229776839e-07</v>
+        <v>3.854673239980897e-07</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0003566606880271601</v>
+        <v>0.0001836609630282963</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G36" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0.196792956994088</v>
+        <v>-0.6612601617015562</v>
       </c>
       <c r="J36" t="n">
-        <v>0.384565546679162</v>
+        <v>0.3117084073504792</v>
       </c>
       <c r="K36" t="n">
-        <v>1.046186690493993</v>
+        <v>0.06117746088081474</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.533451252450954</v>
+        <v>-1.367635554071591</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -2723,16 +2723,16 @@
         <v>3</v>
       </c>
       <c r="P36" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q36" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R36" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S36" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37">
@@ -2740,37 +2740,37 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>195.4898296266196</v>
+        <v>198.2507235890027</v>
       </c>
       <c r="C37" t="n">
-        <v>276.1073806112497</v>
+        <v>319.8094196942134</v>
       </c>
       <c r="D37" t="n">
-        <v>1.136055510282279e-06</v>
+        <v>2.068501784044908e-07</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0003602478354229064</v>
+        <v>0.0002468590363632861</v>
       </c>
       <c r="F37" t="n">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>-1.045400158431121</v>
+        <v>-1.159360956660834</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1581964413295862</v>
+        <v>0.2434624109887844</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.724626718438016</v>
+        <v>-0.507590256104228</v>
       </c>
       <c r="L37" t="n">
-        <v>-1.434220136886517</v>
+        <v>-1.652037556303523</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -2786,16 +2786,16 @@
         <v>3</v>
       </c>
       <c r="P37" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q37" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R37" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S37" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38">
@@ -2803,37 +2803,37 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>53.00199470583985</v>
+        <v>378.9620099151904</v>
       </c>
       <c r="C38" t="n">
-        <v>179.437751152094</v>
+        <v>979.0751374200519</v>
       </c>
       <c r="D38" t="n">
-        <v>3.733517900365265e-07</v>
+        <v>5.540450799997834e-07</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0001106885333288827</v>
+        <v>8.031400068365817e-05</v>
       </c>
       <c r="F38" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.2834331267691971</v>
+        <v>2.216152104767195</v>
       </c>
       <c r="J38" t="n">
-        <v>0.2039493153226704</v>
+        <v>1.496487497929793</v>
       </c>
       <c r="K38" t="n">
-        <v>0.2707874547496323</v>
+        <v>4.933756318720895</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.6372097760717419</v>
+        <v>-0.4213179408102419</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -2849,54 +2849,54 @@
         <v>3</v>
       </c>
       <c r="P38" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q38" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R38" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S38" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0</v>
+        <v>0.05847953216374269</v>
       </c>
       <c r="B39" t="n">
-        <v>87.07619350308495</v>
+        <v>76.32931902712271</v>
       </c>
       <c r="C39" t="n">
-        <v>387.2693783409109</v>
+        <v>301.916500731321</v>
       </c>
       <c r="D39" t="n">
-        <v>2.030257099377856e-07</v>
+        <v>1.667608641802272e-06</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0004878198609451921</v>
+        <v>0.0008923123385276891</v>
       </c>
       <c r="F39" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.4656480935993847</v>
+        <v>-0.09577953548661247</v>
       </c>
       <c r="J39" t="n">
-        <v>0.5102654143216154</v>
+        <v>0.741821746822525</v>
       </c>
       <c r="K39" t="n">
-        <v>1.539619573009903</v>
+        <v>1.056204325170631</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.9150892599113226</v>
+        <v>-1.551361277350728</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -2912,16 +2912,16 @@
         <v>3</v>
       </c>
       <c r="P39" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q39" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R39" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S39" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40">
@@ -2929,37 +2929,37 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>116.3776295560513</v>
+        <v>150.3192131457525</v>
       </c>
       <c r="C40" t="n">
-        <v>228.9013150031831</v>
+        <v>226.2910955466414</v>
       </c>
       <c r="D40" t="n">
-        <v>2.695214703416494e-07</v>
+        <v>1.849268957007322e-07</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0001232668456399816</v>
+        <v>0.0001622640630389253</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="G40" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.6223402650056217</v>
+        <v>-0.8790597259985531</v>
       </c>
       <c r="J40" t="n">
-        <v>0.2195997515319914</v>
+        <v>0.1478075817037669</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.1914601517705649</v>
+        <v>-0.611282118089528</v>
       </c>
       <c r="L40" t="n">
-        <v>-1.114161630431463</v>
+        <v>-1.173568833165312</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -2975,54 +2975,54 @@
         <v>3</v>
       </c>
       <c r="P40" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q40" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R40" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S40" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.053475935828877</v>
+        <v>0.05847953216374269</v>
       </c>
       <c r="B41" t="n">
-        <v>116.8165042522345</v>
+        <v>58.68411163065329</v>
       </c>
       <c r="C41" t="n">
-        <v>427.2176729632614</v>
+        <v>303.0279595454921</v>
       </c>
       <c r="D41" t="n">
-        <v>7.321274923055428e-07</v>
+        <v>5.196635509166315e-07</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0005820462125725545</v>
+        <v>0.0002541703485960938</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4405484791769541</v>
+        <v>-0.2605686490688359</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9936150588303159</v>
+        <v>0.6444183665720947</v>
       </c>
       <c r="K41" t="n">
-        <v>2.62190278531712</v>
+        <v>1.45435621626492</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.7946067811228447</v>
+        <v>-1.402211952496876</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3038,54 +3038,54 @@
         <v>3</v>
       </c>
       <c r="P41" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q41" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R41" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S41" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.053475935828877</v>
+        <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>90.97262312257433</v>
+        <v>112.8742899637544</v>
       </c>
       <c r="C42" t="n">
-        <v>299.0486428089417</v>
+        <v>284.5752722737602</v>
       </c>
       <c r="D42" t="n">
-        <v>5.675006545798062e-08</v>
+        <v>3.46844767285394e-07</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0001698842308699111</v>
+        <v>0.0002671134394564477</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1937200991298318</v>
+        <v>-0.6600835670394996</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7557129098999495</v>
+        <v>0.3973450927842319</v>
       </c>
       <c r="K42" t="n">
-        <v>1.66762483528013</v>
+        <v>0.2544406540977933</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.9206145701177634</v>
+        <v>-1.383440758501647</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -3101,54 +3101,54 @@
         <v>3</v>
       </c>
       <c r="P42" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q42" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R42" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S42" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.053475935828877</v>
+        <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>72.57882636140391</v>
+        <v>48.34487240729223</v>
       </c>
       <c r="C43" t="n">
-        <v>472.2549534039863</v>
+        <v>268.9532048021732</v>
       </c>
       <c r="D43" t="n">
-        <v>4.76869443661057e-06</v>
+        <v>7.47211805546406e-06</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0002947298064766733</v>
+        <v>0.0006477307612444399</v>
       </c>
       <c r="F43" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1900975120005851</v>
+        <v>-0.2827185520894283</v>
       </c>
       <c r="J43" t="n">
-        <v>0.7960845349589221</v>
+        <v>0.4367674785746991</v>
       </c>
       <c r="K43" t="n">
-        <v>1.877806616439522</v>
+        <v>0.8307295648713158</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.8853026537813599</v>
+        <v>-1.305536393766317</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -3164,16 +3164,16 @@
         <v>3</v>
       </c>
       <c r="P43" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q43" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R43" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S43" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44">
@@ -3181,37 +3181,37 @@
         <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>91.4307784963875</v>
+        <v>86.16403344548931</v>
       </c>
       <c r="C44" t="n">
-        <v>232.48799403228</v>
+        <v>230.7772806315624</v>
       </c>
       <c r="D44" t="n">
-        <v>6.377998479679304e-07</v>
+        <v>2.4633727827321e-07</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0005354395292782753</v>
+        <v>0.000243958242073301</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G44" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.4889346443657085</v>
+        <v>-0.5038832365233293</v>
       </c>
       <c r="J44" t="n">
-        <v>0.2937454822957776</v>
+        <v>0.3037572274883253</v>
       </c>
       <c r="K44" t="n">
-        <v>0.01176210461611027</v>
+        <v>0.07222615519984232</v>
       </c>
       <c r="L44" t="n">
-        <v>-1.192847224151513</v>
+        <v>-1.10604222256084</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -3227,16 +3227,16 @@
         <v>3</v>
       </c>
       <c r="P44" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q44" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R44" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S44" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45">
@@ -3244,37 +3244,37 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>117.245389147138</v>
+        <v>239.8668949905722</v>
       </c>
       <c r="C45" t="n">
-        <v>218.8978922232002</v>
+        <v>783.296825188905</v>
       </c>
       <c r="D45" t="n">
-        <v>6.986383407648344e-07</v>
+        <v>5.619471923262025e-06</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0002748199168906056</v>
+        <v>0.0009649339751552429</v>
       </c>
       <c r="F45" t="n">
-        <v>12.2</v>
+        <v>11.2</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.6269806906264066</v>
+        <v>1.402730380061826</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1542389493328254</v>
+        <v>1.02309469833145</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.3757016591260985</v>
+        <v>2.958010056797369</v>
       </c>
       <c r="L45" t="n">
-        <v>-1.102334367595818</v>
+        <v>-0.8105812172966487</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -3290,54 +3290,54 @@
         <v>3</v>
       </c>
       <c r="P45" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q45" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R45" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S45" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.053475935828877</v>
+        <v>0.05847953216374269</v>
       </c>
       <c r="B46" t="n">
-        <v>154.7294158997753</v>
+        <v>97.23122919600641</v>
       </c>
       <c r="C46" t="n">
-        <v>721.212545708681</v>
+        <v>498.5443783613336</v>
       </c>
       <c r="D46" t="n">
-        <v>1.105209294978781e-05</v>
+        <v>3.13224361660639e-06</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0009702547946876267</v>
+        <v>0.0005259862670721881</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.7809260093264591</v>
+        <v>0.1998161725186629</v>
       </c>
       <c r="J46" t="n">
-        <v>1.329946333392617</v>
+        <v>1.079538492901419</v>
       </c>
       <c r="K46" t="n">
-        <v>3.087741914633758</v>
+        <v>2.752398059383776</v>
       </c>
       <c r="L46" t="n">
-        <v>-1.173484194774291</v>
+        <v>-1.112177685569844</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -3353,54 +3353,54 @@
         <v>3</v>
       </c>
       <c r="P46" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q46" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R46" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S46" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0</v>
+        <v>0.05847953216374269</v>
       </c>
       <c r="B47" t="n">
-        <v>133.7879468061987</v>
+        <v>105.9759433984054</v>
       </c>
       <c r="C47" t="n">
-        <v>575.2465557749289</v>
+        <v>559.2097375866186</v>
       </c>
       <c r="D47" t="n">
-        <v>6.860667516797278e-06</v>
+        <v>4.309850627914667e-06</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0004881920886716611</v>
+        <v>0.000583259755627593</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.7154435658085492</v>
+        <v>0.1091903520276114</v>
       </c>
       <c r="J47" t="n">
-        <v>1.130374952916775</v>
+        <v>1.093564339102883</v>
       </c>
       <c r="K47" t="n">
-        <v>3.118477256184538</v>
+        <v>3.140245515283814</v>
       </c>
       <c r="L47" t="n">
-        <v>-1.242717294250481</v>
+        <v>-1.185481255647654</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -3416,16 +3416,16 @@
         <v>3</v>
       </c>
       <c r="P47" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q47" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R47" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S47" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48">
@@ -3433,37 +3433,37 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>59.60375031853754</v>
+        <v>137.2999148165543</v>
       </c>
       <c r="C48" t="n">
-        <v>298.045341584277</v>
+        <v>284.9130572462868</v>
       </c>
       <c r="D48" t="n">
-        <v>9.08225288705655e-06</v>
+        <v>1.569384887888951e-06</v>
       </c>
       <c r="E48" t="n">
-        <v>0.002580544237747133</v>
+        <v>0.001483281544425822</v>
       </c>
       <c r="F48" t="n">
-        <v>10.7</v>
+        <v>4.4</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H48" t="n">
         <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.3187366327194521</v>
+        <v>-0.8029234784593823</v>
       </c>
       <c r="J48" t="n">
-        <v>0.3727374840851584</v>
+        <v>0.2791388581371113</v>
       </c>
       <c r="K48" t="n">
-        <v>0.3571726791275608</v>
+        <v>-0.1488834038145852</v>
       </c>
       <c r="L48" t="n">
-        <v>-1.492313274050776</v>
+        <v>-1.443488888323482</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -3479,16 +3479,16 @@
         <v>3</v>
       </c>
       <c r="P48" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q48" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R48" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S48" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49">
@@ -3496,37 +3496,37 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>113.5170508276802</v>
+        <v>154.9982475054401</v>
       </c>
       <c r="C49" t="n">
-        <v>297.9699391542611</v>
+        <v>373.8450753365912</v>
       </c>
       <c r="D49" t="n">
-        <v>5.241305076685711e-07</v>
+        <v>4.851961011844755e-06</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001903060743958486</v>
+        <v>0.0009387095824782694</v>
       </c>
       <c r="F49" t="n">
-        <v>8</v>
+        <v>1.8</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.6070430525544394</v>
+        <v>-0.9064225000318137</v>
       </c>
       <c r="J49" t="n">
-        <v>0.3140117311278864</v>
+        <v>0.479904516158803</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.09184012900729535</v>
+        <v>0.5987475730777592</v>
       </c>
       <c r="L49" t="n">
-        <v>-1.431397648721576</v>
+        <v>-1.925101556239887</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -3542,54 +3542,54 @@
         <v>3</v>
       </c>
       <c r="P49" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q49" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R49" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S49" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.053475935828877</v>
+        <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>145.0638739239419</v>
+        <v>107.2588625412452</v>
       </c>
       <c r="C50" t="n">
-        <v>445.1331015034627</v>
+        <v>331.4940327713464</v>
       </c>
       <c r="D50" t="n">
-        <v>4.729957518747796e-07</v>
+        <v>7.217944147598711e-07</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0007188909141997383</v>
+        <v>0.0008139536232687633</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.2105323829031182</v>
+        <v>-0.6272448101827202</v>
       </c>
       <c r="J50" t="n">
-        <v>1.199278916285733</v>
+        <v>0.49997835498857</v>
       </c>
       <c r="K50" t="n">
-        <v>2.767933960766678</v>
+        <v>0.1690522480422219</v>
       </c>
       <c r="L50" t="n">
-        <v>-1.426141470722696</v>
+        <v>-1.729728441977617</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -3605,54 +3605,54 @@
         <v>3</v>
       </c>
       <c r="P50" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q50" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R50" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S50" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.053475935828877</v>
+        <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>74.81700546308787</v>
+        <v>106.6490545739358</v>
       </c>
       <c r="C51" t="n">
-        <v>372.8218020942724</v>
+        <v>368.2811921595037</v>
       </c>
       <c r="D51" t="n">
-        <v>3.014686381072366e-07</v>
+        <v>1.721213487960678e-06</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0004675381500250136</v>
+        <v>0.000689712269749997</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.2319869389043849</v>
+        <v>-0.623678681718923</v>
       </c>
       <c r="J51" t="n">
-        <v>0.6902486323181024</v>
+        <v>0.5520660953302301</v>
       </c>
       <c r="K51" t="n">
-        <v>1.171546144090755</v>
+        <v>0.7918051934644864</v>
       </c>
       <c r="L51" t="n">
-        <v>-1.127615758740979</v>
+        <v>-1.60076467084484</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -3668,54 +3668,54 @@
         <v>3</v>
       </c>
       <c r="P51" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q51" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R51" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S51" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.106951871657754</v>
+        <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>31.76747259462827</v>
+        <v>112.7627013856408</v>
       </c>
       <c r="C52" t="n">
-        <v>196.4786265566828</v>
+        <v>250.6256613965848</v>
       </c>
       <c r="D52" t="n">
-        <v>6.463932657611212e-07</v>
+        <v>1.389459931540834e-06</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0004110232274203581</v>
+        <v>0.0007188498744487585</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="G52" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.05850653096009013</v>
+        <v>-0.6594310022552093</v>
       </c>
       <c r="J52" t="n">
-        <v>0.3935940367366465</v>
+        <v>0.2994858920231046</v>
       </c>
       <c r="K52" t="n">
-        <v>0.8534855035348908</v>
+        <v>0.08474864851121659</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.8174285315195376</v>
+        <v>-1.400033881424657</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -3731,16 +3731,16 @@
         <v>3</v>
       </c>
       <c r="P52" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q52" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R52" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S52" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53">
@@ -3748,37 +3748,37 @@
         <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>69.23137852735729</v>
+        <v>81.14984267455431</v>
       </c>
       <c r="C53" t="n">
-        <v>282.9599616180297</v>
+        <v>270.2696207926879</v>
       </c>
       <c r="D53" t="n">
-        <v>1.632996584608615e-07</v>
+        <v>2.929231322692901e-06</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0004433574189794713</v>
+        <v>0.001347801551421705</v>
       </c>
       <c r="F53" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="G53" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>0.3702212755473652</v>
+        <v>-0.4745604834769258</v>
       </c>
       <c r="J53" t="n">
-        <v>0.398813078009234</v>
+        <v>0.4350748711338464</v>
       </c>
       <c r="K53" t="n">
-        <v>1.068495273895743</v>
+        <v>0.3043040572216583</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.6460834236486677</v>
+        <v>-1.320074712422206</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -3794,54 +3794,54 @@
         <v>3</v>
       </c>
       <c r="P53" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q53" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R53" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S53" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>0.1169590643274854</v>
       </c>
       <c r="B54" t="n">
-        <v>78.16937603067115</v>
+        <v>56.11213777778316</v>
       </c>
       <c r="C54" t="n">
-        <v>231.5830569833604</v>
+        <v>282.5962412330758</v>
       </c>
       <c r="D54" t="n">
-        <v>1.270315835094016e-07</v>
+        <v>3.858736670143151e-07</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0002516515517497972</v>
+        <v>0.0002102770973496483</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.4180180536399526</v>
+        <v>-0.315739528909466</v>
       </c>
       <c r="J54" t="n">
-        <v>0.267426670316843</v>
+        <v>0.6705032498451591</v>
       </c>
       <c r="K54" t="n">
-        <v>0.324395314260948</v>
+        <v>1.446403849801435</v>
       </c>
       <c r="L54" t="n">
-        <v>-1.026153706833053</v>
+        <v>-0.9888196719143724</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -3857,54 +3857,54 @@
         <v>3</v>
       </c>
       <c r="P54" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q54" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R54" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S54" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.106951871657754</v>
+        <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>26.02931268269998</v>
+        <v>123.3240827721505</v>
       </c>
       <c r="C55" t="n">
-        <v>172.4546743940218</v>
+        <v>235.2670890833734</v>
       </c>
       <c r="D55" t="n">
-        <v>3.583571952672132e-07</v>
+        <v>1.973151559619944e-07</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0006960203819836769</v>
+        <v>0.0003190861361629375</v>
       </c>
       <c r="F55" t="n">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="G55" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.1340859857124119</v>
+        <v>-0.7211934665038042</v>
       </c>
       <c r="J55" t="n">
-        <v>0.2911112784843798</v>
+        <v>0.2611458395520638</v>
       </c>
       <c r="K55" t="n">
-        <v>0.5733649694654748</v>
+        <v>-0.2634037318827614</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.6635044938143374</v>
+        <v>-1.24858167171076</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -3920,54 +3920,54 @@
         <v>3</v>
       </c>
       <c r="P55" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q55" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R55" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S55" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.053475935828877</v>
+        <v>0.05847953216374269</v>
       </c>
       <c r="B56" t="n">
-        <v>50.38913250094108</v>
+        <v>118.5484253822026</v>
       </c>
       <c r="C56" t="n">
-        <v>402.3200607137592</v>
+        <v>491.9573593363901</v>
       </c>
       <c r="D56" t="n">
-        <v>1.785371312311637e-06</v>
+        <v>1.961934831708249e-06</v>
       </c>
       <c r="E56" t="n">
-        <v>0.000347428900306845</v>
+        <v>0.0002820892714893568</v>
       </c>
       <c r="F56" t="n">
-        <v>11.3</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.2195657896008829</v>
+        <v>0.4133272899559847</v>
       </c>
       <c r="J56" t="n">
-        <v>0.6267496150204883</v>
+        <v>1.186156492162336</v>
       </c>
       <c r="K56" t="n">
-        <v>1.565129555405586</v>
+        <v>3.330837141707914</v>
       </c>
       <c r="L56" t="n">
-        <v>-0.8755556940658654</v>
+        <v>-1.207305542713649</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -3983,16 +3983,16 @@
         <v>3</v>
       </c>
       <c r="P56" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q56" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R56" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S56" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57">
@@ -4000,37 +4000,37 @@
         <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>54.45638461580995</v>
+        <v>63.94179454306847</v>
       </c>
       <c r="C57" t="n">
-        <v>221.3937647326959</v>
+        <v>346.8624664900501</v>
       </c>
       <c r="D57" t="n">
-        <v>5.832958080188866e-07</v>
+        <v>4.811524170065601e-05</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0009542822314991956</v>
+        <v>0.0015309284185977</v>
       </c>
       <c r="F57" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="G57" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.2912106129187697</v>
+        <v>-0.3739286230588799</v>
       </c>
       <c r="J57" t="n">
-        <v>0.3135078548007745</v>
+        <v>0.5988274138674632</v>
       </c>
       <c r="K57" t="n">
-        <v>0.3787299328055031</v>
+        <v>1.82931217907714</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.8683191003713604</v>
+        <v>-1.337239156283965</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -4046,16 +4046,16 @@
         <v>3</v>
       </c>
       <c r="P57" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q57" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R57" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S57" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58">
@@ -4063,37 +4063,37 @@
         <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>213.1310053904602</v>
+        <v>135.9056174536073</v>
       </c>
       <c r="C58" t="n">
-        <v>604.1357422913866</v>
+        <v>427.8839867298647</v>
       </c>
       <c r="D58" t="n">
-        <v>4.994425621841878e-07</v>
+        <v>2.570960330887917e-07</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0006185724762090172</v>
+        <v>0.0002511786334944685</v>
       </c>
       <c r="F58" t="n">
-        <v>12.1</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1.139737996740429</v>
+        <v>-0.7947696927111538</v>
       </c>
       <c r="J58" t="n">
-        <v>0.6770206443066267</v>
+        <v>0.5489450464168167</v>
       </c>
       <c r="K58" t="n">
-        <v>2.804977622802996</v>
+        <v>0.438059002730425</v>
       </c>
       <c r="L58" t="n">
-        <v>0.1204574927603496</v>
+        <v>-1.872134706776432</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -4109,54 +4109,54 @@
         <v>3</v>
       </c>
       <c r="P58" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q58" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R58" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S58" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.053475935828877</v>
+        <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>34.58789562895589</v>
+        <v>153.8459148911467</v>
       </c>
       <c r="C59" t="n">
-        <v>224.8764494398048</v>
+        <v>335.2414224023098</v>
       </c>
       <c r="D59" t="n">
-        <v>1.584587807206585e-06</v>
+        <v>8.84756694214693e-07</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0007133315635795608</v>
+        <v>0.000896774586485005</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.135326776694998</v>
+        <v>-0.8996837128137238</v>
       </c>
       <c r="J59" t="n">
-        <v>0.3860180637528642</v>
+        <v>0.42127164281494</v>
       </c>
       <c r="K59" t="n">
-        <v>0.725683387139836</v>
+        <v>-0.0535204854859049</v>
       </c>
       <c r="L59" t="n">
-        <v>-0.900843550988883</v>
+        <v>-1.598793081125995</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -4172,54 +4172,54 @@
         <v>3</v>
       </c>
       <c r="P59" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q59" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R59" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S59" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0</v>
+        <v>0.05847953216374269</v>
       </c>
       <c r="B60" t="n">
-        <v>85.46642996136353</v>
+        <v>84.03246051498633</v>
       </c>
       <c r="C60" t="n">
-        <v>206.9344939266177</v>
+        <v>432.0926364025702</v>
       </c>
       <c r="D60" t="n">
-        <v>1.724709275456418e-07</v>
+        <v>4.281962577171733e-07</v>
       </c>
       <c r="E60" t="n">
-        <v>0.000341147883791948</v>
+        <v>0.000352879437565228</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.4570397324137087</v>
+        <v>0.03702652230366217</v>
       </c>
       <c r="J60" t="n">
-        <v>0.2226282181292447</v>
+        <v>0.8951260432227249</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.03394521238508839</v>
+        <v>2.363608303278047</v>
       </c>
       <c r="L60" t="n">
-        <v>-0.953024145392219</v>
+        <v>-0.8924933243964606</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -4235,54 +4235,54 @@
         <v>3</v>
       </c>
       <c r="P60" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q60" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R60" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S60" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0</v>
+        <v>0.05847953216374269</v>
       </c>
       <c r="B61" t="n">
-        <v>72.52068273290298</v>
+        <v>71.79037449344703</v>
       </c>
       <c r="C61" t="n">
-        <v>199.9457757353574</v>
+        <v>371.7401493740381</v>
       </c>
       <c r="D61" t="n">
-        <v>1.022820089083745e-06</v>
+        <v>1.143928855794353e-06</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0004979349739096121</v>
+        <v>0.0003334169843706356</v>
       </c>
       <c r="F61" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.3878111376091068</v>
+        <v>-0.3004085923400471</v>
       </c>
       <c r="J61" t="n">
-        <v>0.2605109812631762</v>
+        <v>0.8032593995410531</v>
       </c>
       <c r="K61" t="n">
-        <v>0.1013582498072102</v>
+        <v>1.605326661222939</v>
       </c>
       <c r="L61" t="n">
-        <v>-0.9060454112731451</v>
+        <v>-1.28757822103336</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -4298,16 +4298,16 @@
         <v>3</v>
       </c>
       <c r="P61" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="Q61" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="R61" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S61" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
